--- a/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
+++ b/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1B1BD6-4A49-4646-BAEF-81FD9A1525D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA3FB12-F037-4A4F-A078-6F1B061C45B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" style="5" customWidth="1"/>
     <col min="6" max="8" width="9.453125" style="5" customWidth="1"/>
